--- a/JAMppdf/expdata/50001.xlsx
+++ b/JAMppdf/expdata/50001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/fitpack2/database/pidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/fitpack2/database/JAMppdf/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2FFAD8-46D7-F747-B7D1-F103A1543E77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBCD6DF-FC43-E841-B3AD-C472B444BC0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="26700" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="10">
   <si>
     <t>Q2</t>
   </si>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -505,16 +505,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-7.1878621948183119E-2</v>
+        <v>-83.699050683067355</v>
       </c>
       <c r="B2">
-        <v>2.897447835212184E-2</v>
+        <v>261.06604698195451</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -528,16 +528,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-7.5883460400497857E-2</v>
+        <v>-97.316333791549809</v>
       </c>
       <c r="B3">
-        <v>2.985216919208479E-2</v>
+        <v>260.03995262021778</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -551,16 +551,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-7.6732756422248832E-2</v>
+        <v>-104.8541403727362</v>
       </c>
       <c r="B4">
-        <v>2.999639844205931E-2</v>
+        <v>261.13407846465259</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -574,16 +574,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-7.7106674533058875E-2</v>
+        <v>-116.1906603904839</v>
       </c>
       <c r="B5">
-        <v>3.0046342653720599E-2</v>
+        <v>263.53640651185071</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -597,16 +597,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-7.7313202871885825E-2</v>
+        <v>-119.35876995320891</v>
       </c>
       <c r="B6">
-        <v>3.006691716006387E-2</v>
+        <v>264.30902041346229</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -620,16 +620,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>-7.7441040135269187E-2</v>
+        <v>-123.3304006049278</v>
       </c>
       <c r="B7">
-        <v>3.0075175468539241E-2</v>
+        <v>265.32400815069491</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -643,16 +643,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>-7.752564213169591E-2</v>
+        <v>-128.63004371375791</v>
       </c>
       <c r="B8">
-        <v>3.0077409677730722E-2</v>
+        <v>266.72541389130708</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -666,16 +666,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-7.7584025855819527E-2</v>
+        <v>-59.098354757829838</v>
       </c>
       <c r="B9">
-        <v>3.0076419026355911E-2</v>
+        <v>165.41621697235519</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.05</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -689,16 +689,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>-7.7625387586080757E-2</v>
+        <v>-70.990702860011808</v>
       </c>
       <c r="B10">
-        <v>3.0073606840466029E-2</v>
+        <v>165.64203261191571</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0.05</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -712,16 +712,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>-7.766207495193489E-2</v>
+        <v>-77.369483619887617</v>
       </c>
       <c r="B11">
-        <v>3.0068718858646561E-2</v>
+        <v>166.74841457998241</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0.05</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -735,16 +735,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>-7.486347589117244E-2</v>
+        <v>-86.744346989690044</v>
       </c>
       <c r="B12">
-        <v>3.0751569329193151E-2</v>
+        <v>168.84358752249139</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>5.5E-2</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -758,16 +758,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>-7.8402923327513141E-2</v>
+        <v>-89.325348293986934</v>
       </c>
       <c r="B13">
-        <v>3.1278690694574743E-2</v>
+        <v>169.48707936571239</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>5.5E-2</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -781,16 +781,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>-7.9080557908641561E-2</v>
+        <v>-92.540247505937074</v>
       </c>
       <c r="B14">
-        <v>3.1303073997955462E-2</v>
+        <v>170.32075973688649</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>5.5E-2</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -804,16 +804,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>-7.9352723332633934E-2</v>
+        <v>-96.774120034891595</v>
       </c>
       <c r="B15">
-        <v>3.12843106667385E-2</v>
+        <v>171.45350910059599</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>5.5E-2</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -827,16 +827,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>-7.9488365365644964E-2</v>
+        <v>-42.473360832107829</v>
       </c>
       <c r="B16">
-        <v>3.1258067910120521E-2</v>
+        <v>105.2916839858384</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -850,16 +850,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>-7.9562457504844669E-2</v>
+        <v>-52.752902188233527</v>
       </c>
       <c r="B17">
-        <v>3.1231413819686089E-2</v>
+        <v>106.14762220627701</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>-7.9604117724072734E-2</v>
+        <v>-58.091901789381197</v>
       </c>
       <c r="B18">
-        <v>3.120612072952424E-2</v>
+        <v>107.17969977634419</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -896,16 +896,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>-7.9626943730870467E-2</v>
+        <v>-65.764614685396936</v>
       </c>
       <c r="B19">
-        <v>3.1182586379904821E-2</v>
+        <v>108.9643891114745</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -919,16 +919,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>-7.9638088816298566E-2</v>
+        <v>-67.846530467016294</v>
       </c>
       <c r="B20">
-        <v>3.1160796877954759E-2</v>
+        <v>109.4944882214895</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -942,16 +942,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>-7.9636897160815415E-2</v>
+        <v>-70.423717300168903</v>
       </c>
       <c r="B21">
-        <v>3.113241861875481E-2</v>
+        <v>110.17385424745019</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -965,16 +965,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>-7.757555718161982E-2</v>
+        <v>-73.778386668688327</v>
       </c>
       <c r="B22">
-        <v>3.2389447628158152E-2</v>
+        <v>111.0852597952524</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>0.06</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -988,16 +988,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>-8.066449843363481E-2</v>
+        <v>-31.12282335822848</v>
       </c>
       <c r="B23">
-        <v>3.2556916071538197E-2</v>
+        <v>67.427800351921903</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -1011,16 +1011,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>-8.1178205509191997E-2</v>
+        <v>-39.913969734606731</v>
       </c>
       <c r="B24">
-        <v>3.2462236903107657E-2</v>
+        <v>68.550394653925679</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1034,16 +1034,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>-8.1353608854168022E-2</v>
+        <v>-44.33382309129334</v>
       </c>
       <c r="B25">
-        <v>3.2376074947398997E-2</v>
+        <v>69.46946643355318</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -1057,16 +1057,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>-8.1421996674067854E-2</v>
+        <v>-50.54875193169164</v>
       </c>
       <c r="B26">
-        <v>3.2304271003134502E-2</v>
+        <v>70.963621598533237</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>-8.144517484028603E-2</v>
+        <v>-52.211497726888481</v>
       </c>
       <c r="B27">
-        <v>3.2243836917577727E-2</v>
+        <v>71.396081663474462</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1103,16 +1103,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>-8.1446199873206157E-2</v>
+        <v>-54.257477843188262</v>
       </c>
       <c r="B28">
-        <v>3.2192029436824809E-2</v>
+        <v>71.945334554190154</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1126,16 +1126,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>-8.1435406279963082E-2</v>
+        <v>-56.893374842634643</v>
       </c>
       <c r="B29">
-        <v>3.2146861085100023E-2</v>
+        <v>72.67439944966884</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1149,16 +1149,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>-8.1418000727774276E-2</v>
+        <v>-23.245847812509609</v>
       </c>
       <c r="B30">
-        <v>3.2106916878793371E-2</v>
+        <v>43.52018501131667</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0.06</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>-8.1381084738075093E-2</v>
+        <v>-30.692481979020979</v>
       </c>
       <c r="B31">
-        <v>3.2056132273265273E-2</v>
+        <v>44.700384970440858</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>0.06</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1195,16 +1195,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>-8.0058053266853502E-2</v>
+        <v>-34.314023904766877</v>
       </c>
       <c r="B32">
-        <v>3.3893021104199873E-2</v>
+        <v>45.493415566157253</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1218,16 +1218,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>-8.2712108163777873E-2</v>
+        <v>-39.298825701983858</v>
       </c>
       <c r="B33">
-        <v>3.3698399215371433E-2</v>
+        <v>46.725607004464912</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1241,16 +1241,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>-8.3069077411974557E-2</v>
+        <v>-40.614191833643673</v>
       </c>
       <c r="B34">
-        <v>3.3487295182985391E-2</v>
+        <v>47.074696215099827</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>-8.3152221291113743E-2</v>
+        <v>-42.223294282362268</v>
       </c>
       <c r="B35">
-        <v>3.3336010594719127E-2</v>
+        <v>47.514516146371882</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -1287,16 +1287,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>-8.3156579684512608E-2</v>
+        <v>-44.277548328097168</v>
       </c>
       <c r="B36">
-        <v>3.3220518430074342E-2</v>
+        <v>48.092915094146001</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1310,16 +1310,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>-8.3131331044446616E-2</v>
+        <v>-17.681651148067719</v>
       </c>
       <c r="B37">
-        <v>3.3127873566044547E-2</v>
+        <v>28.36722120074419</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -1333,16 +1333,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>-8.3093731564707354E-2</v>
+        <v>-23.935005385553161</v>
       </c>
       <c r="B38">
-        <v>3.3050894480722397E-2</v>
+        <v>29.489132736972621</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1356,16 +1356,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>-8.3050997654480527E-2</v>
+        <v>-26.87369075279744</v>
       </c>
       <c r="B39">
-        <v>3.2985262105673187E-2</v>
+        <v>30.15685352571786</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>-8.3006477900445241E-2</v>
+        <v>-30.834088392247409</v>
       </c>
       <c r="B40">
-        <v>3.2928197813721173E-2</v>
+        <v>31.15802614891729</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -1402,16 +1402,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>-8.2935686628778427E-2</v>
+        <v>-31.865026983330772</v>
       </c>
       <c r="B41">
-        <v>3.2856345111508312E-2</v>
+        <v>31.4363642606844</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -1425,16 +1425,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>-8.2347906125274289E-2</v>
+        <v>-33.118978334356449</v>
       </c>
       <c r="B42">
-        <v>3.5268120552885959E-2</v>
+        <v>31.784401142981221</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>7.0000000000000007E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -1448,16 +1448,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>-8.4581946901445465E-2</v>
+        <v>-34.706952266678819</v>
       </c>
       <c r="B43">
-        <v>3.4714284301571391E-2</v>
+        <v>32.238241482279058</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>7.0000000000000007E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -1471,16 +1471,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>-8.4788509049306696E-2</v>
+        <v>-13.68581926025643</v>
       </c>
       <c r="B44">
-        <v>3.439081576969278E-2</v>
+        <v>18.71061207058246</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -1494,16 +1494,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>-8.4783271317862105E-2</v>
+        <v>-18.89269586312842</v>
       </c>
       <c r="B45">
-        <v>3.4177407013492561E-2</v>
+        <v>19.715370773412062</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>-8.4726343437918988E-2</v>
+        <v>-21.254266769347751</v>
       </c>
       <c r="B46">
-        <v>3.402055072004647E-2</v>
+        <v>20.266031434047829</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -1540,16 +1540,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>-8.465476602688532E-2</v>
+        <v>-24.37084408853816</v>
       </c>
       <c r="B47">
-        <v>3.3897577925694478E-2</v>
+        <v>21.067265119797749</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -1563,16 +1563,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>-8.4580227565967822E-2</v>
+        <v>-25.17127256411619</v>
       </c>
       <c r="B48">
-        <v>3.3797003028142328E-2</v>
+        <v>21.286133179700499</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -1586,16 +1586,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>-8.4506954144529314E-2</v>
+        <v>-26.139365107427711</v>
       </c>
       <c r="B49">
-        <v>3.3712257724666239E-2</v>
+        <v>21.55778645736936</v>
       </c>
       <c r="C49">
         <v>15</v>
       </c>
       <c r="D49">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -1609,16 +1609,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>-8.4436513580083611E-2</v>
+        <v>-27.356526639146018</v>
       </c>
       <c r="B50">
-        <v>3.3639253448799818E-2</v>
+        <v>21.90924141247503</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
@@ -1632,16 +1632,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>-8.4333378739970988E-2</v>
+        <v>-10.77366086538564</v>
       </c>
       <c r="B51">
-        <v>3.354784303375425E-2</v>
+        <v>12.50989123952256</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>7.0000000000000007E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>-8.447672453912107E-2</v>
+        <v>-15.06984807035851</v>
       </c>
       <c r="B52">
-        <v>3.6521065939105188E-2</v>
+        <v>13.37424205398902</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
@@ -1678,16 +1678,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>-8.6303895878018108E-2</v>
+        <v>-16.94829705559674</v>
       </c>
       <c r="B53">
-        <v>3.5615187897586803E-2</v>
+        <v>13.8203030013398</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -1701,16 +1701,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>-8.6365345402547214E-2</v>
+        <v>-19.37607853603097</v>
       </c>
       <c r="B54">
-        <v>3.5184508310045742E-2</v>
+        <v>14.452101729842511</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
@@ -1724,16 +1724,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>-8.6274913138549333E-2</v>
+        <v>-19.99131368100721</v>
       </c>
       <c r="B55">
-        <v>3.491250966804077E-2</v>
+        <v>14.62176333064075</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
@@ -1747,16 +1747,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>-8.6158930848884763E-2</v>
+        <v>-20.73127214761784</v>
       </c>
       <c r="B56">
-        <v>3.4716938182385082E-2</v>
+        <v>14.830785762423501</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -1770,16 +1770,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>-8.6042719782432414E-2</v>
+        <v>-21.655557381544991</v>
       </c>
       <c r="B57">
-        <v>3.4565740256215227E-2</v>
+        <v>15.099203011091671</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D57">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -1793,16 +1793,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>-8.5932597005112743E-2</v>
+        <v>-8.6218245957793194</v>
       </c>
       <c r="B58">
-        <v>3.4443304788565728E-2</v>
+        <v>8.4881343500182886</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>7.4999999999999997E-2</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
@@ -1816,16 +1816,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>-8.5829905171162776E-2</v>
+        <v>-12.12978821504692</v>
       </c>
       <c r="B59">
-        <v>3.4340918742127247E-2</v>
+        <v>9.2113587234066134</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>7.4999999999999997E-2</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
@@ -1839,16 +1839,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>-8.5734495571851421E-2</v>
+        <v>-13.607028937092929</v>
       </c>
       <c r="B60">
-        <v>3.4253249695911057E-2</v>
+        <v>9.5675349401330614</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>7.4999999999999997E-2</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -1862,16 +1862,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>-8.5600237336497367E-2</v>
+        <v>-15.47696729774413</v>
       </c>
       <c r="B61">
-        <v>3.4143901898733613E-2</v>
+        <v>10.05933482664399</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D61">
-        <v>7.4999999999999997E-2</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
@@ -1885,16 +1885,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>-8.6471500881991042E-2</v>
+        <v>-15.944555991076641</v>
       </c>
       <c r="B62">
-        <v>3.7658401595719253E-2</v>
+        <v>10.189171020924981</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>0.08</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
@@ -1908,16 +1908,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>-8.7902600896254568E-2</v>
+        <v>-16.503819783045909</v>
       </c>
       <c r="B63">
-        <v>3.6411163622436321E-2</v>
+        <v>10.34793408722653</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>0.08</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
@@ -1931,16 +1931,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>-8.7823114072594258E-2</v>
+        <v>-17.19819407941036</v>
       </c>
       <c r="B64">
-        <v>3.5879262235378677E-2</v>
+        <v>10.550355818745411</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>0.08</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -1954,16 +1954,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>-8.7649965701958529E-2</v>
+        <v>-7.0093316744851464</v>
       </c>
       <c r="B65">
-        <v>3.5552598101806589E-2</v>
+        <v>5.8474566765855043</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>-8.74766498673126E-2</v>
+        <v>-9.8382261962429638</v>
       </c>
       <c r="B66">
-        <v>3.5321186708677163E-2</v>
+        <v>6.4427170974959278</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
@@ -2000,16 +2000,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>-8.7317104309498211E-2</v>
+        <v>-10.984694158339289</v>
       </c>
       <c r="B67">
-        <v>3.5144013410330667E-2</v>
+        <v>6.7245101411922743</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
@@ -2023,16 +2023,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>-8.7172430670624343E-2</v>
+        <v>-12.406091716654011</v>
       </c>
       <c r="B68">
-        <v>3.5001554824030577E-2</v>
+        <v>7.1038979299144422</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>-8.7041172514963613E-2</v>
+        <v>-12.75680085732925</v>
       </c>
       <c r="B69">
-        <v>3.4883074656719658E-2</v>
+        <v>7.2023393078605844</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
@@ -2069,16 +2069,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>-8.6921515031341975E-2</v>
+        <v>-13.173943881084361</v>
       </c>
       <c r="B70">
-        <v>3.4782072062268063E-2</v>
+        <v>7.321802005473347</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -2092,16 +2092,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>-8.6757058899303699E-2</v>
+        <v>-13.688876483710491</v>
       </c>
       <c r="B71">
-        <v>3.4656468913267062E-2</v>
+        <v>7.4730446481596413</v>
       </c>
       <c r="C71">
         <v>20</v>
       </c>
       <c r="D71">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
@@ -2115,16 +2115,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>-8.8355192751085831E-2</v>
+        <v>-5.7821029170629394</v>
       </c>
       <c r="B72">
-        <v>3.8686745143566882E-2</v>
+        <v>4.0906377358624137</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
@@ -2138,16 +2138,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>-8.9398317221230289E-2</v>
+        <v>-8.0287173890404215</v>
       </c>
       <c r="B73">
-        <v>3.7111715496360907E-2</v>
+        <v>4.5784939968142648</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
       <c r="D73">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
@@ -2161,16 +2161,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>-8.9180936947316589E-2</v>
+        <v>-8.9043795896679399</v>
       </c>
       <c r="B74">
-        <v>3.6485211038138267E-2</v>
+        <v>4.8008624072560426</v>
       </c>
       <c r="C74">
         <v>5</v>
       </c>
       <c r="D74">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
@@ -2184,16 +2184,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>-8.8926857275430843E-2</v>
+        <v>-9.9676125717601067</v>
       </c>
       <c r="B75">
-        <v>3.6108078854201572E-2</v>
+        <v>5.0925226719469983</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D75">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
@@ -2207,16 +2207,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>-8.8697438126296269E-2</v>
+        <v>-10.22642960091232</v>
       </c>
       <c r="B76">
-        <v>3.5843850067414161E-2</v>
+        <v>5.1668643858260621</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -2230,16 +2230,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>-8.8495481937866854E-2</v>
+        <v>-10.53254734888198</v>
       </c>
       <c r="B77">
-        <v>3.5643039538087187E-2</v>
+        <v>5.2563886873447236</v>
       </c>
       <c r="C77">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D77">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -2253,16 +2253,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>-8.8316989321379158E-2</v>
+        <v>-10.908243466685169</v>
       </c>
       <c r="B78">
-        <v>3.5482451604717288E-2</v>
+        <v>5.3689120919857167</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D78">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
@@ -2276,16 +2276,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>-8.8157766257241005E-2</v>
+        <v>-4.8307789358026803</v>
       </c>
       <c r="B79">
-        <v>3.5349461018338163E-2</v>
+        <v>2.908999117173575</v>
       </c>
       <c r="C79">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>8.5000000000000006E-2</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
@@ -2299,16 +2299,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>-8.8014368440006874E-2</v>
+        <v>-6.5807602748984326</v>
       </c>
       <c r="B80">
-        <v>3.5236480834228458E-2</v>
+        <v>3.3119784684190932</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>8.5000000000000006E-2</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
@@ -2322,16 +2322,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>-8.7820368938769669E-2</v>
+        <v>-7.2362764056306146</v>
       </c>
       <c r="B81">
-        <v>3.5096327510146338E-2</v>
+        <v>3.4880985210793218</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D81">
-        <v>8.5000000000000006E-2</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
@@ -2345,16 +2345,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>-9.014720772887938E-2</v>
+        <v>-8.0155122006220747</v>
       </c>
       <c r="B82">
-        <v>3.9612712073985298E-2</v>
+        <v>3.7127331519579201</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>0.09</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
@@ -2368,16 +2368,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>-9.0807588160156452E-2</v>
+        <v>-8.2025861155634558</v>
       </c>
       <c r="B83">
-        <v>3.7725837590810538E-2</v>
+        <v>3.7689387696121082</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D83">
-        <v>0.09</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -2391,16 +2391,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>-9.045425556766086E-2</v>
+        <v>-8.4225725087539658</v>
       </c>
       <c r="B84">
-        <v>3.7011807032998098E-2</v>
+        <v>3.8360965755141212</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>0.09</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
@@ -2414,16 +2414,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>-9.0120373147136057E-2</v>
+        <v>-8.6909129101679774</v>
       </c>
       <c r="B85">
-        <v>3.6588579938913748E-2</v>
+        <v>3.919859040799123</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D85">
-        <v>0.09</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>-8.9835623912771029E-2</v>
+        <v>-4.0761892040638976</v>
       </c>
       <c r="B86">
-        <v>3.6294637732092017E-2</v>
+        <v>2.111566937432702</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
@@ -2460,16 +2460,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>-8.9591835125755567E-2</v>
+        <v>-5.4053498139765868</v>
       </c>
       <c r="B87">
-        <v>3.6072567855026702E-2</v>
+        <v>2.449301370168409</v>
       </c>
       <c r="C87">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
@@ -2483,16 +2483,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>-8.9379979779011229E-2</v>
+        <v>-5.8832873597337461</v>
       </c>
       <c r="B88">
-        <v>3.5895762619095987E-2</v>
+        <v>2.5895061945235218</v>
       </c>
       <c r="C88">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
@@ -2506,16 +2506,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>-8.9193165579738692E-2</v>
+        <v>-6.4390754665647982</v>
       </c>
       <c r="B89">
-        <v>3.5749851470711871E-2</v>
+        <v>2.7629942703486172</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
@@ -2529,16 +2529,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>-8.9026342046950438E-2</v>
+        <v>-6.5705742247443402</v>
       </c>
       <c r="B90">
-        <v>3.5626248546109289E-2</v>
+        <v>2.8055707774309329</v>
       </c>
       <c r="C90">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D90">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
@@ -2552,16 +2552,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>-8.880321042385686E-2</v>
+        <v>-6.7242647017996369</v>
       </c>
       <c r="B91">
-        <v>3.5473241552640769E-2</v>
+        <v>2.856043418531228</v>
       </c>
       <c r="C91">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D91">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
@@ -2575,16 +2575,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>-9.1863816358537631E-2</v>
+        <v>-6.9104614982292878</v>
       </c>
       <c r="B92">
-        <v>4.0442889228436182E-2</v>
+        <v>2.918466760474018</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D92">
-        <v>9.5000000000000001E-2</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
@@ -2598,16 +2598,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>-9.2143801195756311E-2</v>
+        <v>-3.4595658734681232</v>
       </c>
       <c r="B93">
-        <v>3.8262065041508482E-2</v>
+        <v>1.5795202209015591</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
@@ -2621,16 +2621,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>-9.165541972167876E-2</v>
+        <v>-4.4352981530840214</v>
       </c>
       <c r="B94">
-        <v>3.7467895903536823E-2</v>
+        <v>1.864510015242077</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
@@ -2644,16 +2644,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>-9.1242259054715391E-2</v>
+        <v>-4.7713755911705444</v>
       </c>
       <c r="B95">
-        <v>3.7003038702358118E-2</v>
+        <v>1.975616391559339</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D95">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
@@ -2667,16 +2667,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>-9.0902538069397035E-2</v>
+        <v>-5.1530796770232499</v>
       </c>
       <c r="B96">
-        <v>3.6682511819974208E-2</v>
+        <v>2.1087052514969229</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
@@ -2690,16 +2690,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>-9.0617183788374286E-2</v>
+        <v>-5.2419607339972423</v>
       </c>
       <c r="B97">
-        <v>3.644155838743058E-2</v>
+        <v>2.1407171869221728</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
@@ -2713,16 +2713,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>-9.0372175982104647E-2</v>
+        <v>-5.3451423241153613</v>
       </c>
       <c r="B98">
-        <v>3.6250433520762161E-2</v>
+        <v>2.178363345581857</v>
       </c>
       <c r="C98">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D98">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
@@ -2736,16 +2736,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>-9.0157942497383889E-2</v>
+        <v>-5.4691425603095816</v>
       </c>
       <c r="B99">
-        <v>3.6093171352115407E-2</v>
+        <v>2.2244950818360731</v>
       </c>
       <c r="C99">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -2759,16 +2759,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>-8.9967837590520128E-2</v>
+        <v>-2.9360493308516329</v>
       </c>
       <c r="B100">
-        <v>3.5960277355514679E-2</v>
+        <v>1.2352679194182259</v>
       </c>
       <c r="C100">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>9.5000000000000001E-2</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -2782,16 +2782,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>-8.9715771533969105E-2</v>
+        <v>-3.6189470491480051</v>
       </c>
       <c r="B101">
-        <v>3.5796077425026301E-2</v>
+        <v>1.470498845460255</v>
       </c>
       <c r="C101">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>9.5000000000000001E-2</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
@@ -2805,16 +2805,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>-9.3518510238502786E-2</v>
+        <v>-3.8433014709192661</v>
       </c>
       <c r="B102">
-        <v>4.1183838075878741E-2</v>
+        <v>1.555907727704896</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D102">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>-9.3417651476617236E-2</v>
+        <v>-4.0913673295692066</v>
       </c>
       <c r="B103">
-        <v>3.8728526495980083E-2</v>
+        <v>1.654789822016896</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
@@ -2851,16 +2851,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>-9.279417293058316E-2</v>
+        <v>-4.1480645006689691</v>
       </c>
       <c r="B104">
-        <v>3.7861784355912122E-2</v>
+        <v>1.678079549474276</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D104">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
@@ -2874,16 +2874,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>-9.2301716086879676E-2</v>
+        <v>-4.2133608329867416</v>
       </c>
       <c r="B105">
-        <v>3.7359778299923783E-2</v>
+        <v>1.705241201883495</v>
       </c>
       <c r="C105">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D105">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>-9.190701393421867E-2</v>
+        <v>-4.2910322919141768</v>
       </c>
       <c r="B106">
-        <v>3.7015769709509302E-2</v>
+        <v>1.7381894637270709</v>
       </c>
       <c r="C106">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D106">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
@@ -2920,16 +2920,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>-9.1580088245401675E-2</v>
+        <v>-2.4708957910479961</v>
       </c>
       <c r="B107">
-        <v>3.6758269268097582E-2</v>
+        <v>1.0202978941701211</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>0.1</v>
+        <v>1.438449888287663E-2</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
@@ -2943,16 +2943,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>-9.1301923841843172E-2</v>
+        <v>-2.916673062760196</v>
       </c>
       <c r="B108">
-        <v>3.6554679186328203E-2</v>
+        <v>1.201100039012702</v>
       </c>
       <c r="C108">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>0.1</v>
+        <v>1.438449888287663E-2</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
@@ -2966,16 +2966,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>-9.1060267965158828E-2</v>
+        <v>-3.0551354074842281</v>
       </c>
       <c r="B109">
-        <v>3.638759188975596E-2</v>
+        <v>1.2619704624372521</v>
       </c>
       <c r="C109">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>0.1</v>
+        <v>1.438449888287663E-2</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
@@ -2989,16 +2989,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>-9.0846879236483533E-2</v>
+        <v>-3.2031732028049742</v>
       </c>
       <c r="B110">
-        <v>3.6246695920987677E-2</v>
+        <v>1.329896883649317</v>
       </c>
       <c r="C110">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>0.1</v>
+        <v>1.438449888287663E-2</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -3012,24 +3012,714 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>-9.0565893267511216E-2</v>
+        <v>-3.2361986421060172</v>
       </c>
       <c r="B111">
-        <v>3.607290429990738E-2</v>
+        <v>1.345522503575739</v>
       </c>
       <c r="C111">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>1.438449888287663E-2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>-3.2738321545148392</v>
+      </c>
+      <c r="B112">
+        <v>1.3635721197188</v>
+      </c>
+      <c r="C112">
+        <v>15</v>
+      </c>
+      <c r="D112">
+        <v>1.438449888287663E-2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>-3.3179533263168879</v>
+      </c>
+      <c r="B113">
+        <v>1.385208290497655</v>
+      </c>
+      <c r="C113">
         <v>20</v>
       </c>
-      <c r="D111">
+      <c r="D113">
+        <v>1.438449888287663E-2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>-2.0386006878697862</v>
+      </c>
+      <c r="B114">
+        <v>0.88234545424524036</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>-2.3002039768022251</v>
+      </c>
+      <c r="B115">
+        <v>1.002705056796716</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>-2.3754830704289689</v>
+      </c>
+      <c r="B116">
+        <v>1.039816653739611</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>-2.4520453019920012</v>
+      </c>
+      <c r="B117">
+        <v>1.0792649073998271</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>-2.4684818749525821</v>
+      </c>
+      <c r="B118">
+        <v>1.0880380404219689</v>
+      </c>
+      <c r="C118">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>-2.4868874404401189</v>
+      </c>
+      <c r="B119">
+        <v>1.098027321624528</v>
+      </c>
+      <c r="C119">
+        <v>15</v>
+      </c>
+      <c r="D119">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>-2.5079247048926989</v>
+      </c>
+      <c r="B120">
+        <v>1.1097902781509299</v>
+      </c>
+      <c r="C120">
+        <v>20</v>
+      </c>
+      <c r="D120">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>-1.625967115857643</v>
+      </c>
+      <c r="B121">
+        <v>0.77426931892177164</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>-1.755057799747203</v>
+      </c>
+      <c r="B122">
+        <v>0.83322008852340801</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>-1.787491158045118</v>
+      </c>
+      <c r="B123">
+        <v>0.84861482742632954</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>-1.8171607210892291</v>
+      </c>
+      <c r="B124">
+        <v>0.86317987606805668</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>-1.822959015532974</v>
+      </c>
+      <c r="B125">
+        <v>0.86612812169499898</v>
+      </c>
+      <c r="C125">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>-1.829152674452353</v>
+      </c>
+      <c r="B126">
+        <v>0.86934037406720222</v>
+      </c>
+      <c r="C126">
+        <v>15</v>
+      </c>
+      <c r="D126">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>-1.8357199731036491</v>
+      </c>
+      <c r="B127">
+        <v>0.87291635270613455</v>
+      </c>
+      <c r="C127">
+        <v>20</v>
+      </c>
+      <c r="D127">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>-1.2395855129805251</v>
+      </c>
+      <c r="B128">
+        <v>0.65944561762910103</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>-1.2849038897518941</v>
+      </c>
+      <c r="B129">
+        <v>0.66423898835680517</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>-1.2919746173027411</v>
+      </c>
+      <c r="B130">
+        <v>0.66225023049589382</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>-1.294933489914039</v>
+      </c>
+      <c r="B131">
+        <v>0.65791203041457225</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>-1.2948360193951229</v>
+      </c>
+      <c r="B132">
+        <v>0.65659094158972042</v>
+      </c>
+      <c r="C132">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>-1.294341478911897</v>
+      </c>
+      <c r="B133">
+        <v>0.65491098907356016</v>
+      </c>
+      <c r="C133">
+        <v>15</v>
+      </c>
+      <c r="D133">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>6</v>
+      </c>
+      <c r="G133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>-1.293121410369509</v>
+      </c>
+      <c r="B134">
+        <v>0.65268776695077402</v>
+      </c>
+      <c r="C134">
+        <v>20</v>
+      </c>
+      <c r="D134">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>-0.91088533468434685</v>
+      </c>
+      <c r="B135">
+        <v>0.51567431340302172</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
         <v>0.1</v>
       </c>
-      <c r="E111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>6</v>
+      </c>
+      <c r="G135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>-0.90953811594585232</v>
+      </c>
+      <c r="B136">
+        <v>0.48405725765332658</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>0.1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>-0.90325632814201429</v>
+      </c>
+      <c r="B137">
+        <v>0.4721711527803521</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>0.1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+      <c r="G137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>-0.89262450891857448</v>
+      </c>
+      <c r="B138">
+        <v>0.45819937053744991</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>0.1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>-0.88960186979359634</v>
+      </c>
+      <c r="B139">
+        <v>0.45488138817690088</v>
+      </c>
+      <c r="C139">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>0.1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>-0.88582560840059998</v>
+      </c>
+      <c r="B140">
+        <v>0.45100082422000293</v>
+      </c>
+      <c r="C140">
+        <v>15</v>
+      </c>
+      <c r="D140">
+        <v>0.1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>-0.8808575876199467</v>
+      </c>
+      <c r="B141">
+        <v>0.44629516725044621</v>
+      </c>
+      <c r="C141">
+        <v>20</v>
+      </c>
+      <c r="D141">
+        <v>0.1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" t="s">
         <v>7</v>
       </c>
     </row>
